--- a/ZhongNuoShuKe/dz_SDK_automation/data/测试数据.xlsx
+++ b/ZhongNuoShuKe/dz_SDK_automation/data/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="42">
   <si>
     <t>api_name</t>
   </si>
@@ -119,7 +119,19 @@
     <t>发起小额打款认证请求发起成功</t>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
     <t>application/json;charset=UTF-8</t>
+  </si>
+  <si>
+    <t>/bank/auth/request</t>
+  </si>
+  <si>
+    <t>{"corporationIdentity": {"businessCode": "91440300MA5F7UJL2H","corporationName":"泓润供应链管理（深圳）有限公司","ownerName": "陈锦青"},"bankAccount": {"bankAccount": "6214830112267878","bankBranch": "招商银行朝阳支行","bankBranchNo": "123456786543"},"notifyUrl": "/xxx/xxx/xxx"}</t>
+  </si>
+  <si>
+    <t>检查返回报文字段正确</t>
   </si>
   <si>
     <t>{
@@ -246,7 +258,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +273,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -707,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,16 +737,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -737,16 +755,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,98 +773,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -859,6 +877,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1217,12 +1251,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="3" max="3" width="52.775" style="3" customWidth="1"/>
-    <col min="4" max="5" width="38.8833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="77.1083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7777777777778" style="3" customWidth="1"/>
+    <col min="4" max="5" width="38.8796296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="77.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1258,7 +1292,7 @@
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -1290,7 +1324,7 @@
       </c>
     </row>
     <row r="3" ht="54" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -1322,7 +1356,7 @@
       </c>
     </row>
     <row r="4" ht="54" customHeight="1" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -1354,7 +1388,7 @@
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -1401,81 +1435,136 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.775" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.8833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.8796296296296" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.8796296296296" style="4" customWidth="1"/>
+    <col min="3" max="4" width="32" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.6296296296296" style="4" customWidth="1"/>
+    <col min="6" max="6" width="49.7777777777778" style="4" customWidth="1"/>
+    <col min="7" max="7" width="60.4444444444444" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.3333333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.4444444444444" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="108" customHeight="1" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" ht="201" customHeight="1" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2"/>
-      <c r="G2" s="3"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="201" customHeight="1" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="/bank/auth/request" tooltip="http://123.57.27.89/bank/auth/request"/>
+    <hyperlink ref="F3" r:id="rId1" display="/bank/auth/request" tooltip="http://123.57.27.89/bank/auth/request"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1491,12 +1580,12 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="48.8833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="77.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.8833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.8796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1532,7 +1621,7 @@
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -1551,7 +1640,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1560,7 +1649,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1582,14 +1671,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="4" max="4" width="47.2166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.8833333333333" style="1" customWidth="1"/>
-    <col min="6" max="7" width="78.1083333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.212962962963" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.8796296296296" style="1" customWidth="1"/>
+    <col min="6" max="7" width="78.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="18" width="78.1083333333333" style="1" customWidth="1"/>
+    <col min="10" max="18" width="78.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1625,7 +1714,7 @@
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -1644,7 +1733,7 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1653,7 +1742,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="7:10">
@@ -1679,10 +1768,10 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="4" max="4" width="41.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.8796296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="80" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.6666666666667" style="1" customWidth="1"/>
   </cols>
@@ -1720,7 +1809,7 @@
       </c>
     </row>
     <row r="2" ht="408" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
@@ -1739,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1748,7 +1837,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="7:7">

--- a/ZhongNuoShuKe/dz_SDK_automation/data/测试数据.xlsx
+++ b/ZhongNuoShuKe/dz_SDK_automation/data/测试数据.xlsx
@@ -1438,7 +1438,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
